--- a/biology/Botanique/Ichirō_Miyake/Ichirō_Miyake.xlsx
+++ b/biology/Botanique/Ichirō_Miyake/Ichirō_Miyake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ichir%C5%8D_Miyake</t>
+          <t>Ichirō_Miyake</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ichirō Miyake (三宅 市郎, Miyake Ichirō?), né le 24 mars 1881 à Kushihara dans la préfecture de Gifu – décédé le 15 février 1964 à Ōta, Tokyo, est un mycologue japonais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ichirō Miyake (三宅 市郎, Miyake Ichirō?), né le 24 mars 1881 à Kushihara dans la préfecture de Gifu – décédé le 15 février 1964 à Ōta, Tokyo, est un mycologue japonais.
 I.Miyake est l’abréviation botanique standard de Ichirō Miyake.
 Consulter la liste des abréviations d'auteur en botanique ou la liste des plantes assignées à cet auteur par l'IPNI
 </t>
